--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Jag2-Notch3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H2">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I2">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J2">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N2">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q2">
-        <v>69.18362953493333</v>
+        <v>77.81582145697799</v>
       </c>
       <c r="R2">
-        <v>622.6526658143999</v>
+        <v>700.342393112802</v>
       </c>
       <c r="S2">
-        <v>0.07236836732699164</v>
+        <v>0.06186262513583574</v>
       </c>
       <c r="T2">
-        <v>0.07236836732699166</v>
+        <v>0.06186262513583575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H3">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I3">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J3">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q3">
-        <v>118.66534322456</v>
+        <v>106.294733184618</v>
       </c>
       <c r="R3">
-        <v>1067.98808902104</v>
+        <v>956.652598661562</v>
       </c>
       <c r="S3">
-        <v>0.1241278783028042</v>
+        <v>0.08450301121024845</v>
       </c>
       <c r="T3">
-        <v>0.1241278783028043</v>
+        <v>0.08450301121024846</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H4">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I4">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J4">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N4">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q4">
-        <v>0.8761253957333331</v>
+        <v>3.931810211718</v>
       </c>
       <c r="R4">
-        <v>7.885128561599999</v>
+        <v>35.386291905462</v>
       </c>
       <c r="S4">
-        <v>0.0009164561745191601</v>
+        <v>0.003125740969877665</v>
       </c>
       <c r="T4">
-        <v>0.0009164561745191603</v>
+        <v>0.003125740969877665</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H5">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I5">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J5">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N5">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q5">
-        <v>541.40973240448</v>
+        <v>590.4808855668959</v>
       </c>
       <c r="R5">
-        <v>4872.687591640321</v>
+        <v>5314.327970102064</v>
       </c>
       <c r="S5">
-        <v>0.5663325074506503</v>
+        <v>0.4694250730733058</v>
       </c>
       <c r="T5">
-        <v>0.5663325074506504</v>
+        <v>0.4694250730733058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.80984</v>
+        <v>15.953202</v>
       </c>
       <c r="H6">
-        <v>53.42952</v>
+        <v>47.859606</v>
       </c>
       <c r="I6">
-        <v>0.765729102759791</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="J6">
-        <v>0.7657291027597911</v>
+        <v>0.6210379196599995</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N6">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q6">
-        <v>1.89658767144</v>
+        <v>2.668555911348</v>
       </c>
       <c r="R6">
-        <v>17.06928904296</v>
+        <v>24.017003202132</v>
       </c>
       <c r="S6">
-        <v>0.001983893504825584</v>
+        <v>0.002121469270731913</v>
       </c>
       <c r="T6">
-        <v>0.001983893504825584</v>
+        <v>0.002121469270731913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H7">
         <v>2.219224</v>
       </c>
       <c r="I7">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J7">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N7">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q7">
-        <v>2.873579457031112</v>
+        <v>3.608277480534221</v>
       </c>
       <c r="R7">
-        <v>25.86221511328</v>
+        <v>32.47449732480799</v>
       </c>
       <c r="S7">
-        <v>0.003005859263060491</v>
+        <v>0.002868536410526445</v>
       </c>
       <c r="T7">
-        <v>0.003005859263060491</v>
+        <v>0.002868536410526446</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H8">
         <v>2.219224</v>
       </c>
       <c r="I8">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J8">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q8">
-        <v>4.928829187538667</v>
+        <v>4.928829187538666</v>
       </c>
       <c r="R8">
-        <v>44.359462687848</v>
+        <v>44.35946268784799</v>
       </c>
       <c r="S8">
-        <v>0.005155718535346424</v>
+        <v>0.003918358846289967</v>
       </c>
       <c r="T8">
-        <v>0.005155718535346424</v>
+        <v>0.003918358846289968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H9">
         <v>2.219224</v>
       </c>
       <c r="I9">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J9">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N9">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q9">
-        <v>0.03639034199111111</v>
+        <v>0.182315909272</v>
       </c>
       <c r="R9">
-        <v>0.32751307792</v>
+        <v>1.640843183448</v>
       </c>
       <c r="S9">
-        <v>3.806550269291412E-05</v>
+        <v>0.0001449389152542499</v>
       </c>
       <c r="T9">
-        <v>3.806550269291412E-05</v>
+        <v>0.0001449389152542499</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H10">
         <v>2.219224</v>
       </c>
       <c r="I10">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J10">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N10">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q10">
-        <v>22.48774594990934</v>
+        <v>27.38027874260622</v>
       </c>
       <c r="R10">
-        <v>202.389713549184</v>
+        <v>246.4225086834559</v>
       </c>
       <c r="S10">
-        <v>0.023522926886011</v>
+        <v>0.02176698630502796</v>
       </c>
       <c r="T10">
-        <v>0.023522926886011</v>
+        <v>0.02176698630502796</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7397413333333334</v>
+        <v>0.7397413333333333</v>
       </c>
       <c r="H11">
         <v>2.219224</v>
       </c>
       <c r="I11">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="J11">
-        <v>0.03180497227643061</v>
+        <v>0.02879719185777549</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N11">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q11">
-        <v>0.078775794328</v>
+        <v>0.123739491792</v>
       </c>
       <c r="R11">
-        <v>0.7089821489520001</v>
+        <v>1.113655426128</v>
       </c>
       <c r="S11">
-        <v>8.24020893197815E-05</v>
+        <v>9.837138067686473E-05</v>
       </c>
       <c r="T11">
-        <v>8.24020893197815E-05</v>
+        <v>9.837138067686473E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H12">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I12">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J12">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N12">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q12">
-        <v>4.010011385697777</v>
+        <v>27.35130762626167</v>
       </c>
       <c r="R12">
-        <v>36.09010247128</v>
+        <v>246.161768636355</v>
       </c>
       <c r="S12">
-        <v>0.004194604690392314</v>
+        <v>0.02174395462231058</v>
       </c>
       <c r="T12">
-        <v>0.004194604690392314</v>
+        <v>0.02174395462231058</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H13">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I13">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J13">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q13">
-        <v>6.878063215488666</v>
+        <v>37.361296095695</v>
       </c>
       <c r="R13">
-        <v>61.90256893939799</v>
+        <v>336.2516648612551</v>
       </c>
       <c r="S13">
-        <v>0.007194681872326732</v>
+        <v>0.02970177287448895</v>
       </c>
       <c r="T13">
-        <v>0.007194681872326732</v>
+        <v>0.02970177287448895</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H14">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I14">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J14">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N14">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q14">
-        <v>0.05078185165777777</v>
+        <v>1.381983105945</v>
       </c>
       <c r="R14">
-        <v>0.4570366649199999</v>
+        <v>12.437847953505</v>
       </c>
       <c r="S14">
-        <v>5.311949834113893E-05</v>
+        <v>0.001098659645640316</v>
       </c>
       <c r="T14">
-        <v>5.311949834113893E-05</v>
+        <v>0.001098659645640316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H15">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I15">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J15">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N15">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q15">
-        <v>31.38111148350933</v>
+        <v>207.5467950627067</v>
       </c>
       <c r="R15">
-        <v>282.430003351584</v>
+        <v>1867.92115556436</v>
       </c>
       <c r="S15">
-        <v>0.03282568171450399</v>
+        <v>0.1649971604837052</v>
       </c>
       <c r="T15">
-        <v>0.03282568171450399</v>
+        <v>0.1649971604837052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.032291333333333</v>
+        <v>5.607355000000001</v>
       </c>
       <c r="H16">
-        <v>3.096874</v>
+        <v>16.822065</v>
       </c>
       <c r="I16">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="J16">
-        <v>0.0443830779198489</v>
+        <v>0.2182872180766656</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N16">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q16">
-        <v>0.109929736378</v>
+        <v>0.9379647002700002</v>
       </c>
       <c r="R16">
-        <v>0.9893676274019999</v>
+        <v>8.441682302430001</v>
       </c>
       <c r="S16">
-        <v>0.000114990144284718</v>
+        <v>0.0007456704505205257</v>
       </c>
       <c r="T16">
-        <v>0.000114990144284718</v>
+        <v>0.0007456704505205255</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H17">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I17">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J17">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N17">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q17">
-        <v>5.874953607582222</v>
+        <v>7.087481416535666</v>
       </c>
       <c r="R17">
-        <v>52.87458246823999</v>
+        <v>63.787332748821</v>
       </c>
       <c r="S17">
-        <v>0.006145396007127176</v>
+        <v>0.005634460933767227</v>
       </c>
       <c r="T17">
-        <v>0.006145396007127176</v>
+        <v>0.005634460933767228</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H18">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I18">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J18">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.988727</v>
       </c>
       <c r="O18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q18">
-        <v>10.07685475535933</v>
+        <v>9.681346698089</v>
       </c>
       <c r="R18">
-        <v>90.69169279823399</v>
+        <v>87.132120282801</v>
       </c>
       <c r="S18">
-        <v>0.01054072374257792</v>
+        <v>0.00769655206846415</v>
       </c>
       <c r="T18">
-        <v>0.01054072374257792</v>
+        <v>0.007696552068464152</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H19">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I19">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J19">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N19">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q19">
-        <v>0.07439904626222221</v>
+        <v>0.3581101026389999</v>
       </c>
       <c r="R19">
-        <v>0.6695914163599999</v>
+        <v>3.222990923751</v>
       </c>
       <c r="S19">
-        <v>7.782386591850743E-05</v>
+        <v>0.0002846931462281123</v>
       </c>
       <c r="T19">
-        <v>7.782386591850743E-05</v>
+        <v>0.0002846931462281124</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H20">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I20">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J20">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N20">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q20">
-        <v>45.97557372967466</v>
+        <v>53.78112349027466</v>
       </c>
       <c r="R20">
-        <v>413.780163567072</v>
+        <v>484.030111412472</v>
       </c>
       <c r="S20">
-        <v>0.04809197248112389</v>
+        <v>0.04275533457810211</v>
       </c>
       <c r="T20">
-        <v>0.04809197248112389</v>
+        <v>0.04275533457810212</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.512380666666666</v>
+        <v>1.453021</v>
       </c>
       <c r="H21">
-        <v>4.537141999999999</v>
+        <v>4.359063</v>
       </c>
       <c r="I21">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="J21">
-        <v>0.06502438488599119</v>
+        <v>0.05656426459479998</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N21">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q21">
-        <v>0.161054929574</v>
+        <v>0.243052634754</v>
       </c>
       <c r="R21">
-        <v>1.449494366166</v>
+        <v>2.187473712786</v>
       </c>
       <c r="S21">
-        <v>0.000168468789243687</v>
+        <v>0.0001932238682383734</v>
       </c>
       <c r="T21">
-        <v>0.000168468789243687</v>
+        <v>0.0001932238682383734</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H22">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I22">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J22">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N22">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O22">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P22">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q22">
-        <v>8.407832675839998</v>
+        <v>9.436741870923889</v>
       </c>
       <c r="R22">
-        <v>75.67049408256</v>
+        <v>84.93067683831499</v>
       </c>
       <c r="S22">
-        <v>0.008794871382135827</v>
+        <v>0.00750209422626689</v>
       </c>
       <c r="T22">
-        <v>0.008794871382135829</v>
+        <v>0.007502094226266891</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H23">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I23">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J23">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.988727</v>
       </c>
       <c r="O23">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P23">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q23">
-        <v>14.421306846144</v>
+        <v>12.89038579200167</v>
       </c>
       <c r="R23">
-        <v>129.791761615296</v>
+        <v>116.013472128015</v>
       </c>
       <c r="S23">
-        <v>0.01508516448461313</v>
+        <v>0.01024769885064799</v>
       </c>
       <c r="T23">
-        <v>0.01508516448461313</v>
+        <v>0.01024769885064799</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H24">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I24">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J24">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N24">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O24">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P24">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q24">
-        <v>0.10647483776</v>
+        <v>0.476811493585</v>
       </c>
       <c r="R24">
-        <v>0.9582735398399999</v>
+        <v>4.291303442265</v>
       </c>
       <c r="S24">
-        <v>0.000111376205930433</v>
+        <v>0.0003790592984283369</v>
       </c>
       <c r="T24">
-        <v>0.000111376205930433</v>
+        <v>0.0003790592984283369</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H25">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I25">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J25">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N25">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O25">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P25">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q25">
-        <v>65.797103588352</v>
+        <v>71.60774753100888</v>
       </c>
       <c r="R25">
-        <v>592.173932295168</v>
+        <v>644.4697277790799</v>
       </c>
       <c r="S25">
-        <v>0.06882594905099129</v>
+        <v>0.05692728238795881</v>
       </c>
       <c r="T25">
-        <v>0.06882594905099131</v>
+        <v>0.05692728238795881</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.164416</v>
+        <v>1.934648333333333</v>
       </c>
       <c r="H26">
-        <v>6.493247999999999</v>
+        <v>5.803945</v>
       </c>
       <c r="I26">
-        <v>0.0930584621579383</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="J26">
-        <v>0.09305846215793831</v>
+        <v>0.07531340581075942</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N26">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O26">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P26">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q26">
-        <v>0.230490824256</v>
+        <v>0.32361636531</v>
       </c>
       <c r="R26">
-        <v>2.074417418304</v>
+        <v>2.91254728779</v>
       </c>
       <c r="S26">
-        <v>0.0002411010342676055</v>
+        <v>0.0002572710474573931</v>
       </c>
       <c r="T26">
-        <v>0.0002411010342676055</v>
+        <v>0.0002572710474573931</v>
       </c>
     </row>
   </sheetData>
